--- a/Documents/Spec.xlsx
+++ b/Documents/Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\OnlineShopApp\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EE3305-8A65-4DFB-85EE-4A3072CB7305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7302F41-71BD-4B36-87D2-1C07B6DE60E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E6B94CBD-DF7A-4CFD-9A5A-A3D32A6F5112}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="DB" sheetId="2" r:id="rId2"/>
     <sheet name="UI" sheetId="3" r:id="rId3"/>
     <sheet name="Spec" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <r>
       <t>1. T</t>
@@ -2404,6 +2405,146 @@
       </rPr>
       <t>p thanh toán online?</t>
     </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>View -&gt; VM -&gt; Service -&gt; Reposotory -&gt; Model -&gt; DB</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>4. Hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i dung bài vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t docs-&gt; html s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ng ckeditor </t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ck finder</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2988,6 +3129,133 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0BF92AD-7F6E-23AD-8033-16A22D3CC87E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="304800"/>
+          <a:ext cx="942975" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92588EB-0A36-4674-A5DE-65AD55F9ED3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="295275"/>
+          <a:ext cx="2895600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3393,8 +3661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FD4DCF-01F8-4845-A9CF-5ACBEA78B184}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3409,7 +3677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538512FF-C16C-42BB-B118-6B7DE6B7C163}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
@@ -3423,10 +3691,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B49011C-B3F9-4B39-9806-FF0505426942}">
-  <dimension ref="A2:B18"/>
+  <dimension ref="A2:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3499,18 +3767,50 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77885FE-11F7-46B8-AD3A-1D111BED0CF7}">
+  <dimension ref="A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>